--- a/Data Files/IHS_IP_permissions/expected_results_us.xlsx
+++ b/Data Files/IHS_IP_permissions/expected_results_us.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11014"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcfu/Katalon Studio/HCI_Group/Data Files/IHS_IP_permissions/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3087EAFD-0631-AC4A-85F3-E38C9C40571A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="12000" yWindow="480" windowWidth="28800" windowHeight="16420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="7" r:id="rId1"/>
@@ -12,7 +18,7 @@
     <sheet name="product" sheetId="8" r:id="rId3"/>
     <sheet name="template" sheetId="9" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="34">
   <si>
     <t>Abyssinian</t>
   </si>
@@ -118,12 +124,18 @@
   </si>
   <si>
     <t>CSA,ESA,JAXA,RSA,ITAR,HP_Boeing_inwork</t>
+  </si>
+  <si>
+    <t>HP_Boeing_inwork,ITAR</t>
+  </si>
+  <si>
+    <t>ITAR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -311,11 +323,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="127">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -448,6 +461,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -772,14 +793,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.1640625" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
@@ -788,7 +809,7 @@
     <col min="5" max="5" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -811,7 +832,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -819,7 +840,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -833,7 +854,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -844,7 +865,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -858,7 +879,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -869,21 +890,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -897,15 +918,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
       <c r="F9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -913,7 +940,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -927,7 +954,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -935,7 +962,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -943,15 +970,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>23</v>
       </c>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="F14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -962,7 +995,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -970,7 +1003,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -978,9 +1011,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="F18" t="s">
         <v>28</v>
@@ -998,14 +1037,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.33203125" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
@@ -1014,7 +1053,7 @@
     <col min="5" max="5" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -1037,7 +1076,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1045,7 +1084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1056,7 +1095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1067,7 +1106,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1078,7 +1117,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1089,18 +1128,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1111,15 +1153,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1127,7 +1175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1139,7 +1187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1147,7 +1195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1155,15 +1203,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>23</v>
       </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
       <c r="F14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1174,7 +1228,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1182,7 +1236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1192,9 +1246,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
       </c>
       <c r="F18" t="s">
         <v>28</v>
@@ -1212,14 +1272,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" customWidth="1"/>
@@ -1227,7 +1287,7 @@
     <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -1250,7 +1310,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1258,7 +1318,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1266,7 +1326,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1277,7 +1337,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1288,7 +1348,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1299,7 +1359,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1307,7 +1367,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1315,7 +1375,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1323,7 +1383,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1331,7 +1391,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1341,7 +1401,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1349,7 +1409,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1363,7 +1423,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1377,7 +1437,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1388,7 +1448,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1402,7 +1462,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1410,7 +1470,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1436,14 +1496,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.1640625" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
@@ -1452,7 +1512,7 @@
     <col min="5" max="5" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -1475,7 +1535,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1483,7 +1543,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1494,7 +1554,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1505,7 +1565,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1519,7 +1579,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1530,7 +1590,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1544,7 +1604,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1558,7 +1618,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1566,7 +1626,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1574,7 +1634,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1588,7 +1648,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1596,7 +1656,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1604,7 +1664,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1612,7 +1672,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1623,7 +1683,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
@@ -1631,7 +1691,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1639,7 +1699,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>

--- a/Data Files/IHS_IP_permissions/expected_results_us.xlsx
+++ b/Data Files/IHS_IP_permissions/expected_results_us.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcfu/Katalon Studio/HCI_Group/Data Files/IHS_IP_permissions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3087EAFD-0631-AC4A-85F3-E38C9C40571A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA1EA0E-1C22-E34E-96F0-F6FDA4C694BB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12000" yWindow="480" windowWidth="28800" windowHeight="16420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="1100" windowWidth="14260" windowHeight="16340" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="7" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="34">
   <si>
     <t>Abyssinian</t>
   </si>
@@ -136,7 +136,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -156,6 +156,13 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -323,12 +330,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="127">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -797,7 +806,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -895,7 +904,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="D7" t="s">
         <v>32</v>
@@ -922,7 +934,7 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>33</v>
       </c>
       <c r="D9" t="s">
@@ -974,7 +986,7 @@
       <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -1015,7 +1027,7 @@
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -1040,7 +1052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -1275,8 +1287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1322,6 +1334,9 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="D3" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -1341,8 +1356,11 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
+      <c r="B5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
@@ -1500,7 +1518,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1597,8 +1615,11 @@
       <c r="B7" t="s">
         <v>25</v>
       </c>
+      <c r="C7" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
         <v>28</v>
@@ -1622,6 +1643,12 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="C9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="F9" t="s">
         <v>28</v>
       </c>
@@ -1668,6 +1695,12 @@
       <c r="A14" t="s">
         <v>23</v>
       </c>
+      <c r="C14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="F14" t="s">
         <v>28</v>
       </c>
@@ -1702,6 +1735,12 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F18" t="s">
         <v>28</v>
